--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C22A12-A521-422E-B1DC-E3EF214D280A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0F810B-2945-4433-83E9-490B39F1131B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -227,15 +227,6 @@
   </si>
   <si>
     <t>BuffConfig.xlsx</t>
-  </si>
-  <si>
-    <t>ActionEventConfigCategory</t>
-  </si>
-  <si>
-    <t>ActionEventConfig</t>
-  </si>
-  <si>
-    <t>ActionEventConfig.xlsx</t>
   </si>
   <si>
     <t>ServerInfoConfigCategory</t>
@@ -618,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -968,16 +959,16 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -993,20 +984,6 @@
       </c>
       <c r="E19" s="3" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0F810B-2945-4433-83E9-490B39F1131B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F15FBE-6E84-4812-9A7F-2E0ED3CF3916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1485" yWindow="1380" windowWidth="22155" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
   <si>
     <t>##var</t>
   </si>
@@ -250,6 +250,18 @@
   </si>
   <si>
     <t>ItemConfig.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectConfigCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectConfig.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -609,25 +621,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.875" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
     <col min="7" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="33.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.375" customWidth="1"/>
+    <col min="12" max="12" width="33.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,7 +680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -703,7 +715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -729,7 +741,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -746,7 +758,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>35</v>
       </c>
@@ -763,7 +775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>38</v>
       </c>
@@ -780,7 +792,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>41</v>
       </c>
@@ -797,7 +809,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -811,7 +823,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>47</v>
       </c>
@@ -825,7 +837,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>50</v>
       </c>
@@ -842,7 +854,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>54</v>
       </c>
@@ -859,7 +871,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>56</v>
       </c>
@@ -876,7 +888,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>58</v>
       </c>
@@ -893,7 +905,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>60</v>
       </c>
@@ -910,7 +922,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>61</v>
       </c>
@@ -927,7 +939,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>62</v>
       </c>
@@ -944,7 +956,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>66</v>
       </c>
@@ -958,7 +970,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>69</v>
       </c>
@@ -972,7 +984,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>72</v>
       </c>
@@ -984,6 +996,20 @@
       </c>
       <c r="E19" s="3" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F15FBE-6E84-4812-9A7F-2E0ED3CF3916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE83DE56-E657-47A2-9336-203D40319BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="1380" windowWidth="22155" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="81">
   <si>
     <t>##var</t>
   </si>
@@ -262,6 +262,18 @@
   </si>
   <si>
     <t>EffectConfig.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AudioConfigCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AudioConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AudioConfig.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -621,25 +633,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.875" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="29.875" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
     <col min="7" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="18.375" customWidth="1"/>
-    <col min="12" max="12" width="33.375" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,7 +692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -715,7 +727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -741,7 +753,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -758,7 +770,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>35</v>
       </c>
@@ -775,7 +787,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>38</v>
       </c>
@@ -792,7 +804,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>41</v>
       </c>
@@ -809,7 +821,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -823,7 +835,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>47</v>
       </c>
@@ -837,7 +849,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>50</v>
       </c>
@@ -854,7 +866,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>54</v>
       </c>
@@ -871,7 +883,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>56</v>
       </c>
@@ -888,7 +900,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>58</v>
       </c>
@@ -905,7 +917,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>60</v>
       </c>
@@ -922,7 +934,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>61</v>
       </c>
@@ -939,7 +951,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>62</v>
       </c>
@@ -956,7 +968,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>66</v>
       </c>
@@ -970,7 +982,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>69</v>
       </c>
@@ -984,7 +996,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>72</v>
       </c>
@@ -998,7 +1010,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>75</v>
       </c>
@@ -1010,6 +1022,20 @@
       </c>
       <c r="E20" s="3" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE83DE56-E657-47A2-9336-203D40319BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F0DF4C-8F0E-4A92-B934-A7C09976F6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
   <si>
     <t>##var</t>
   </si>
@@ -274,6 +274,18 @@
   </si>
   <si>
     <t>AudioConfig.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColliderConfigCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColliderConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColliderConfig.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -633,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1038,6 +1050,20 @@
         <v>80</v>
       </c>
     </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
